--- a/data/trans_orig/Q17F_D_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q17F_D_R-Provincia-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>8.582166855577027</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.855198009371676</v>
+        <v>7.855198009371677</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>8.827186017539017</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.217860718124906</v>
+        <v>6.39537357268177</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.213096841315907</v>
+        <v>5.401224097505761</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.61618785425558</v>
+        <v>3.319320876329885</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.415672715666966</v>
+        <v>4.523815531140302</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.889429162161014</v>
+        <v>4.985678672604601</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.932859728312556</v>
+        <v>2.841599548573514</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>9.039388489398645</v>
+        <v>8.863104828974572</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>12.20919617185982</v>
+        <v>12.78055070122186</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.647499772916264</v>
+        <v>6.860463353169472</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.354232802236124</v>
+        <v>4.578953495044732</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7.825751192282603</v>
+        <v>8.340562079473823</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>10.05988747303106</v>
+        <v>10.30041416923659</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>24.84533697873072</v>
+        <v>28.31767544855968</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.09326512083839</v>
+        <v>16.6413455727121</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20.0584224358685</v>
+        <v>19.95404404540442</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15.395765109095</v>
+        <v>16.46889985049059</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>15.67006986121106</v>
+        <v>16.31629464193481</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>13.74697623107473</v>
+        <v>13.64993189532369</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>27.26074788198124</v>
+        <v>27.98053247396563</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>38.10909472662428</v>
+        <v>40.27673318944144</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>16.38648794314639</v>
+        <v>17.41997584529105</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11.34019146843251</v>
+        <v>11.68365846979175</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20.22812773449661</v>
+        <v>20.22729783075228</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>26.5030697706428</v>
+        <v>26.21192246300046</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>13.49938509029051</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>28.69610273483771</v>
+        <v>28.69610273483772</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>16.35495891241951</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>9.334557682383625</v>
+        <v>9.483332057331925</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.71255194838604</v>
+        <v>5.847140215050747</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.792741224529148</v>
+        <v>5.004293223016699</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12.24469844956626</v>
+        <v>12.89063650948592</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>10.19810324011466</v>
+        <v>10.0968405803671</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>6.542483919268872</v>
+        <v>6.289963503659429</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>9.251943969739283</v>
+        <v>8.861103371686513</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>18.9478351486366</v>
+        <v>18.57074311888229</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>11.51984218794732</v>
+        <v>11.60476224621572</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7.166167061280997</v>
+        <v>7.182027268223703</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8.29511352800003</v>
+        <v>8.327849569548148</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>19.15746978880577</v>
+        <v>18.13712201302755</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>46.7771617980031</v>
+        <v>45.20097571075282</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>17.92384239650768</v>
+        <v>18.55191003133334</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14.8266135412819</v>
+        <v>14.82244687705471</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>65.31980292712934</v>
+        <v>65.88972759463749</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>24.96779165054794</v>
+        <v>24.93617276307701</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>21.21816676997382</v>
+        <v>22.00416305137908</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>22.38193348568429</v>
+        <v>20.78875839399624</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>46.61388665361392</v>
+        <v>46.48954318470244</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>27.4149717345252</v>
+        <v>27.36765856964991</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>16.81673463076083</v>
+        <v>16.45001158640517</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17.16848120110573</v>
+        <v>17.28028914938872</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>44.61799820904924</v>
+        <v>46.06052412016248</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>10.67447478574619</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>10.79872972296255</v>
+        <v>10.79872972296256</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>6.458516391712802</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.424878064148337</v>
+        <v>3.542671918108764</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.524709392451579</v>
+        <v>4.484908241813855</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.942913612003716</v>
+        <v>2.743970656254635</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8.473351997940838</v>
+        <v>8.300296175980607</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.260070555458083</v>
+        <v>2.359369057954986</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.943075306729265</v>
+        <v>3.707300502794111</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>5.544374726874888</v>
+        <v>5.715350114231661</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>8.038445883975776</v>
+        <v>7.991039588898445</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.549485370390685</v>
+        <v>3.449205085839378</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5.01704820742832</v>
+        <v>5.737282561845787</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5.748477261874901</v>
+        <v>5.683865532285589</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>9.214257656106756</v>
+        <v>9.377259515855984</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>34.37471203055548</v>
+        <v>37.47988989915409</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>20.15980444663191</v>
+        <v>19.14653463563177</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.68169406720628</v>
+        <v>18.23081903644171</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>28.90807338095851</v>
+        <v>29.13235943306943</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.125918452774441</v>
+        <v>6.181241618035966</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>20.27354278361067</v>
+        <v>20.87833541992099</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>22.48660121895233</v>
+        <v>24.93427745874732</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>15.09918469433936</v>
+        <v>15.59620776427403</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>15.68590645718022</v>
+        <v>15.15853631484023</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>16.18859795853132</v>
+        <v>17.42306701622136</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16.90648941148945</v>
+        <v>17.51448663450342</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>20.08318309887218</v>
+        <v>19.49151027183115</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>13.6710781561763</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>32.8155032659541</v>
+        <v>32.81550326595411</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.680565825751271</v>
+        <v>8.736650618679846</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.71675951803432</v>
+        <v>6.680578749062943</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8.108004470956942</v>
+        <v>7.846651228265736</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28.0199554474811</v>
+        <v>27.26048533783957</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>2.115304753867169</v>
+        <v>2.207551469331059</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>6.290533717083282</v>
+        <v>6.357807892701167</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>8.946776374621368</v>
+        <v>9.09851831306379</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>15.18801347570931</v>
+        <v>14.79164495647198</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>4.965111854374079</v>
+        <v>4.693786437668011</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7.428958277667246</v>
+        <v>7.301935223074982</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9.624136743424643</v>
+        <v>9.456140746063785</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>23.05128373850212</v>
+        <v>23.48412681406229</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>32.86395442437381</v>
+        <v>32.13989078003013</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>24.02523127062067</v>
+        <v>23.22567889776299</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>25.31045337049937</v>
+        <v>25.8635346288491</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>101.5249636427674</v>
+        <v>94.98568576354292</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>8.498974960586787</v>
+        <v>7.445307438549024</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>18.98530193122675</v>
+        <v>18.76962934589887</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>23.20305329427119</v>
+        <v>24.42899385836672</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>33.49647777633072</v>
+        <v>33.8267153714806</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>12.21413042908178</v>
+        <v>12.92936538667842</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>17.05242899178874</v>
+        <v>17.12774784057943</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>21.63254491001946</v>
+        <v>19.86540781792922</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>54.49435589916307</v>
+        <v>54.3645224283903</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>7.925662632848891</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>56.56800349695821</v>
+        <v>56.56800349695823</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>9.054570314000513</v>
@@ -1237,7 +1237,7 @@
         <v>10.506464728195</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>29.22092912742299</v>
+        <v>29.220929127423</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.471395929401532</v>
+        <v>3.253541516617585</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.881256693944797</v>
+        <v>1.967164247502123</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.957093585613388</v>
+        <v>2.769340978562279</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19.31447262462994</v>
+        <v>21.66580231456517</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>5.071142206840235</v>
+        <v>5.149539374764963</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.629864890375922</v>
+        <v>4.493698600882699</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.339166900249084</v>
+        <v>4.373227680079122</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>7.880402743184852</v>
+        <v>7.689795705220962</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>5.33173371362079</v>
+        <v>5.453140887638269</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4.25475547307586</v>
+        <v>4.260698250338822</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4.962635482751013</v>
+        <v>4.949160805699167</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>15.60944322202428</v>
+        <v>15.00741381121511</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.56805002630484</v>
+        <v>15.4819589247679</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.38192911731035</v>
+        <v>13.44992648473258</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19.65388327487361</v>
+        <v>20.34764007293022</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>161.213547591528</v>
+        <v>137.6733770128338</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>15.13367927369615</v>
+        <v>15.56400715321734</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>10.72529410848102</v>
+        <v>10.97172812559697</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>39.14316232029837</v>
+        <v>39.89120887397556</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>15.98001174338394</v>
+        <v>15.97733824006973</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>12.82502643895262</v>
+        <v>13.35788934478412</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8.889414809890543</v>
+        <v>9.507985125270688</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>26.35607561229057</v>
+        <v>24.94368503577275</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>66.54783249850564</v>
+        <v>65.09226294692021</v>
       </c>
     </row>
     <row r="19">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.801074721997356</v>
+        <v>1.570120566390659</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>5.079708813306314</v>
+        <v>5.074721363626296</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.519201844527173</v>
+        <v>2.519233994245598</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6.317995958996174</v>
+        <v>6.32649874663447</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>4.264690297760656</v>
+        <v>4.110779323332409</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>6.197841419516487</v>
+        <v>6.137974518664958</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>3.422897092110274</v>
+        <v>3.495462298128805</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>8.09706022405037</v>
+        <v>7.642270557504442</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>3.861352390921643</v>
+        <v>4.103422584337763</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6.637513471851533</v>
+        <v>6.742057986016168</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3.326539342049051</v>
+        <v>3.375605833699807</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>8.390199173076239</v>
+        <v>8.451451050272635</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>12.42519284787954</v>
+        <v>12.72583265896032</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>17.29541305594713</v>
+        <v>18.0724479394819</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.538051502642881</v>
+        <v>7.456262682084043</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>22.9838135264633</v>
+        <v>22.00830464808283</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>28.87857563031373</v>
+        <v>33.01554457822021</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>19.11421112349032</v>
+        <v>19.77527673063442</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>10.62536219342261</v>
+        <v>11.42074938935826</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>31.26033399623327</v>
+        <v>32.91202682499481</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>20.18358896947184</v>
+        <v>18.42947726023502</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>16.09737168637416</v>
+        <v>15.72562417083846</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7.667930864919863</v>
+        <v>7.47297405339307</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>20.98442278800689</v>
+        <v>22.38856424743592</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>19.11425069907203</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31.59626761551122</v>
+        <v>31.59626761551123</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>11.66459797548993</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.465783867506782</v>
+        <v>6.638341716040983</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>9.017059615668632</v>
+        <v>8.455926984244037</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12.1827908436855</v>
+        <v>13.01861284642246</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>21.26928585231042</v>
+        <v>22.17219692429546</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>7.5045947701535</v>
+        <v>7.616734101295191</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.800148433353925</v>
+        <v>8.959820736418578</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>9.397239033878794</v>
+        <v>9.521110444723991</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>21.04755793123237</v>
+        <v>21.09892334050243</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>8.2600528105344</v>
+        <v>7.868221958672895</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>9.823940810618549</v>
+        <v>9.684971829987862</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12.24653805412985</v>
+        <v>12.30989535813331</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>23.6304674230673</v>
+        <v>23.32519080141164</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>14.28973239709166</v>
+        <v>14.65360543986847</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>19.37729220102082</v>
+        <v>18.49456313041924</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>29.2812447786371</v>
+        <v>31.43366015033357</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>47.4093954742909</v>
+        <v>46.71342003630127</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>18.04978341090742</v>
+        <v>20.10715421509603</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>18.64854159234336</v>
+        <v>19.18502070728947</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>23.01852268164157</v>
+        <v>23.37318722463413</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>35.27236062831994</v>
+        <v>35.48338872107675</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>15.26575555187721</v>
+        <v>14.96078719900096</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>17.25843942330303</v>
+        <v>16.86216845649188</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>22.40789474235102</v>
+        <v>22.86049359780587</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>36.52590022888177</v>
+        <v>36.19815063400872</v>
       </c>
     </row>
     <row r="25">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>4.259476417901461</v>
+        <v>4.09955891479857</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>5.469813681243114</v>
+        <v>5.529923247478626</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5.036253560959349</v>
+        <v>4.905540988836973</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11.06864037666816</v>
+        <v>11.46361721994277</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>5.32356761687101</v>
+        <v>5.631257049088343</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>5.616725390469982</v>
+        <v>5.941763840111197</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>10.82078293700364</v>
+        <v>11.31161847261509</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>17.76208763298924</v>
+        <v>17.35165245295937</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>5.342216895813222</v>
+        <v>5.365141868469921</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6.583585411369523</v>
+        <v>6.505630445497371</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9.070093748625393</v>
+        <v>9.185921310291517</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>16.61778916138505</v>
+        <v>16.56620407446969</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>11.42003779273877</v>
+        <v>11.163337801962</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>14.29588907522389</v>
+        <v>14.05184620364821</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>11.55525257528984</v>
+        <v>12.20246516261567</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>22.68837733912813</v>
+        <v>23.22141628016703</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>15.13309282869378</v>
+        <v>14.78622792760805</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>15.81537980277765</v>
+        <v>15.38304133264951</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>35.51036881179454</v>
+        <v>35.25068244165661</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>33.35298302956168</v>
+        <v>34.20515010913697</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>11.31908402691348</v>
+        <v>11.27329474076334</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>13.31832187544423</v>
+        <v>12.74930071477923</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>22.62010721237521</v>
+        <v>23.49192529440785</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>26.74820358914782</v>
+        <v>27.02801555239606</v>
       </c>
     </row>
     <row r="28">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>8.157249456185424</v>
+        <v>8.353997677068815</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>8.186827847055328</v>
+        <v>8.103430670649674</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8.051331729574056</v>
+        <v>8.03804591626683</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>19.34864180671803</v>
+        <v>19.94192123317367</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>7.377968393914236</v>
+        <v>7.432221500075271</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>8.009355160662645</v>
+        <v>8.243455848196296</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>11.12701346591559</v>
+        <v>11.16807501410467</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>19.65556435526091</v>
+        <v>19.58288469931536</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>8.268219158307581</v>
+        <v>8.204682610333693</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>8.591873533928267</v>
+        <v>8.602087026696415</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10.2420242739705</v>
+        <v>10.37801868801665</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>20.64043939449181</v>
+        <v>20.50092713014964</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>14.16649839623425</v>
+        <v>14.65000109523315</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>12.33080600348848</v>
+        <v>12.08761357032321</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12.30005563633645</v>
+        <v>12.3326336462629</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>31.32963223060841</v>
+        <v>31.10210188154314</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>11.55237456156902</v>
+        <v>11.40409678111371</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>12.35355836738523</v>
+        <v>12.24352036450894</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>18.02108357695436</v>
+        <v>18.22388609018391</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>26.24076987297981</v>
+        <v>26.38448133874154</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>11.42842296032479</v>
+        <v>11.61099613529769</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>11.4644837842398</v>
+        <v>11.6119830765132</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>14.56222200730444</v>
+        <v>14.61431997727043</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>26.80940995207775</v>
+        <v>26.65877240562641</v>
       </c>
     </row>
     <row r="31">
